--- a/02-08-26 to 02-14-26 Madison Schedule.xlsx
+++ b/02-08-26 to 02-14-26 Madison Schedule.xlsx
@@ -2235,7 +2235,11 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Nate / Qiana - Gray van to Buttita after the Kelley</t>
+        </is>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
@@ -2265,21 +2269,9 @@
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
@@ -2310,15 +2302,19 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
@@ -2349,12 +2345,12 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -2384,12 +2380,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
@@ -2431,12 +2427,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
@@ -2474,12 +2470,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -2517,12 +2513,12 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
@@ -2560,12 +2556,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
@@ -2603,15 +2599,19 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>*Gray Van after*</t>
+        </is>
+      </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
@@ -2646,15 +2646,19 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>*Gray Van after*</t>
+        </is>
+      </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
@@ -2687,8 +2691,16 @@
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>

--- a/02-08-26 to 02-14-26 Madison Schedule.xlsx
+++ b/02-08-26 to 02-14-26 Madison Schedule.xlsx
@@ -2307,12 +2307,13 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Mike G</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Equip</t>
+          <t>*Gray Van after*
+Equip</t>
         </is>
       </c>
       <c r="L39" t="inlineStr"/>
@@ -2651,14 +2652,10 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>*Gray Van after*</t>
-        </is>
-      </c>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
@@ -2691,16 +2688,8 @@
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>

--- a/02-08-26 to 02-14-26 Madison Schedule.xlsx
+++ b/02-08-26 to 02-14-26 Madison Schedule.xlsx
@@ -1201,7 +1201,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Dan</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Dan</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1412,7 +1412,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Jerry</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1542,7 +1542,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1707,7 +1707,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1774,7 +1774,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1830,21 +1830,9 @@
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
@@ -1938,7 +1926,11 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
@@ -1995,7 +1987,7 @@
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
@@ -2054,7 +2046,7 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #82, STATE ST MOBIL, BELVIDERE</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
@@ -2093,7 +2085,7 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>KELLEY #82, STATE ST MOBIL, BELVIDERE</t>
+          <t>1901 N STATE ST</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -2132,7 +2124,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>1901 N STATE ST</t>
+          <t>https://goo.gl/maps/4TPgfMygjsLQ8pYB9</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2167,7 +2159,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/4TPgfMygjsLQ8pYB9</t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2202,7 +2194,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
+          <t>Nate / Qiana - Gray van to Buttita after the Kelley</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2235,11 +2227,7 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Nate / Qiana - Gray van to Buttita after the Kelley</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
@@ -2269,9 +2257,22 @@
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>*Gray Van after*
+Equip</t>
+        </is>
+      </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
@@ -2302,20 +2303,15 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>*Gray Van after*
-Equip</t>
-        </is>
-      </c>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
@@ -2346,12 +2342,12 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -2381,12 +2377,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
@@ -2428,12 +2424,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
@@ -2471,12 +2467,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -2514,12 +2510,12 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
@@ -2557,15 +2553,19 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Laci</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>*Gray Van after*</t>
+        </is>
+      </c>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
@@ -2600,19 +2600,15 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>*Gray Van after*</t>
-        </is>
-      </c>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
@@ -2645,16 +2641,8 @@
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>

--- a/02-08-26 to 02-14-26 Madison Schedule.xlsx
+++ b/02-08-26 to 02-14-26 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y49"/>
+  <dimension ref="A1:Y48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1301,10 +1301,15 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Silver Van</t>
+        </is>
+      </c>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr">
@@ -1368,13 +1373,12 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Silver Van</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T20" t="inlineStr"/>
@@ -1433,21 +1437,9 @@
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr">
@@ -1564,7 +1556,11 @@
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
@@ -1617,7 +1613,7 @@
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="S24" t="inlineStr"/>
@@ -1672,7 +1668,7 @@
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>OPEN PANTRY #605, BAYSIDE</t>
         </is>
       </c>
       <c r="S25" t="inlineStr"/>
@@ -1727,7 +1723,7 @@
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
         <is>
-          <t>OPEN PANTRY #605, BAYSIDE</t>
+          <t>501 W BROWN DEER RD</t>
         </is>
       </c>
       <c r="S26" t="inlineStr"/>
@@ -1794,7 +1790,7 @@
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
         <is>
-          <t>501 W BROWN DEER RD</t>
+          <t>https://goo.gl/maps/pQaSRAn88Vh6DAQ58</t>
         </is>
       </c>
       <c r="S27" t="inlineStr"/>
@@ -1839,11 +1835,7 @@
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/pQaSRAn88Vh6DAQ58</t>
-        </is>
-      </c>
+      <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
@@ -1890,9 +1882,21 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
@@ -1939,17 +1943,17 @@
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Bri</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T30" t="inlineStr"/>
@@ -1996,21 +2000,9 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>Bri</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
@@ -2095,7 +2087,11 @@
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
@@ -2136,7 +2132,7 @@
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
@@ -2171,7 +2167,7 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #39, ALPINE MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -2206,7 +2202,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>KELLEY #39, ALPINE MOBIL, ROCKFORD</t>
+          <t>321 N ALPINE ROAD</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2237,7 +2233,7 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>321 N ALPINE ROAD</t>
+          <t>https://goo.gl/maps/TGuxbxW7qpk</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2281,7 +2277,7 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/TGuxbxW7qpk</t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -2318,11 +2314,7 @@
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
-        </is>
-      </c>
+      <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
@@ -2356,9 +2348,21 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
@@ -2393,19 +2397,15 @@
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
@@ -2440,12 +2440,12 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -2483,12 +2483,12 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
@@ -2526,12 +2526,12 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
@@ -2573,12 +2573,12 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S45" t="inlineStr"/>
@@ -2616,12 +2616,12 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
@@ -2651,12 +2651,12 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
@@ -2686,12 +2686,12 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
@@ -2702,41 +2702,6 @@
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr"/>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
-      <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
